--- a/Doc/Wikberg_OliveiraPlanningCourant.xlsx
+++ b/Doc/Wikberg_OliveiraPlanningCourant.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
   <si>
     <t>Tâches</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Les deux :</t>
   </si>
   <si>
-    <t>Implémentation nouvelles fonctionnalités Web</t>
-  </si>
-  <si>
-    <t>À définir</t>
-  </si>
-  <si>
     <t>Finalisation doc</t>
   </si>
   <si>
@@ -130,6 +124,15 @@
   </si>
   <si>
     <t>Mise à jour données planning</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t>Correction bug</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,6 +326,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,6 +350,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -341,26 +364,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF37"/>
+  <dimension ref="A1:BF39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX21" sqref="AX21"/>
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +683,7 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="24">
         <v>42628</v>
       </c>
       <c r="C1" s="25"/>
@@ -695,7 +699,7 @@
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
-      <c r="P1" s="26">
+      <c r="P1" s="24">
         <v>42635</v>
       </c>
       <c r="Q1" s="25"/>
@@ -711,7 +715,7 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
       <c r="AC1" s="25"/>
-      <c r="AD1" s="26">
+      <c r="AD1" s="24">
         <v>42642</v>
       </c>
       <c r="AE1" s="25"/>
@@ -727,7 +731,7 @@
       <c r="AO1" s="25"/>
       <c r="AP1" s="25"/>
       <c r="AQ1" s="25"/>
-      <c r="AR1" s="26">
+      <c r="AR1" s="24">
         <v>42649</v>
       </c>
       <c r="AS1" s="25"/>
@@ -749,16 +753,16 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="25" t="s">
         <v>3</v>
       </c>
@@ -769,10 +773,10 @@
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="25" t="s">
         <v>1</v>
       </c>
@@ -797,30 +801,30 @@
         <v>4</v>
       </c>
       <c r="AC2" s="25"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27" t="s">
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27" t="s">
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27" t="s">
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27" t="s">
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="27"/>
+      <c r="AQ2" s="29"/>
       <c r="AR2" s="25" t="s">
         <v>1</v>
       </c>
@@ -880,7 +884,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
@@ -891,7 +895,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
@@ -927,7 +931,7 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>42656</v>
       </c>
       <c r="C7" s="25"/>
@@ -943,7 +947,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
-      <c r="P7" s="26">
+      <c r="P7" s="24">
         <v>42663</v>
       </c>
       <c r="Q7" s="25"/>
@@ -959,7 +963,7 @@
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
       <c r="AC7" s="25"/>
-      <c r="AD7" s="26">
+      <c r="AD7" s="24">
         <v>42677</v>
       </c>
       <c r="AE7" s="25"/>
@@ -974,8 +978,8 @@
       <c r="AN7" s="25"/>
       <c r="AO7" s="25"/>
       <c r="AP7" s="25"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="26">
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="24">
         <v>42684</v>
       </c>
       <c r="AS7" s="25"/>
@@ -997,16 +1001,16 @@
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="25" t="s">
         <v>3</v>
       </c>
@@ -1017,10 +1021,10 @@
       </c>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="21"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="25" t="s">
         <v>1</v>
       </c>
@@ -1045,30 +1049,30 @@
         <v>4</v>
       </c>
       <c r="AC8" s="25"/>
-      <c r="AD8" s="27" t="s">
+      <c r="AD8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27" t="s">
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27" t="s">
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27" t="s">
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27" t="s">
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AQ8" s="27"/>
+      <c r="AQ8" s="29"/>
       <c r="AR8" s="25" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1101,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1117,7 +1121,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
@@ -1132,7 +1136,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
@@ -1143,7 +1147,7 @@
     </row>
     <row r="12" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
@@ -1163,7 +1167,7 @@
     </row>
     <row r="13" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR13" s="14"/>
       <c r="AS13" s="14"/>
@@ -1183,7 +1187,7 @@
     </row>
     <row r="14" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1201,7 +1205,7 @@
     </row>
     <row r="15" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -1214,7 +1218,7 @@
     </row>
     <row r="16" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
@@ -1229,7 +1233,7 @@
     </row>
     <row r="17" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AD17" s="12"/>
       <c r="AE17" s="12"/>
@@ -1249,7 +1253,7 @@
     </row>
     <row r="18" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AR18" s="12"/>
       <c r="AS18" s="12"/>
@@ -1271,7 +1275,7 @@
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>42691</v>
       </c>
       <c r="C19" s="25"/>
@@ -1287,223 +1291,223 @@
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
-      <c r="P19" s="22">
+      <c r="P19" s="30">
         <v>42698</v>
       </c>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="22">
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="30">
         <v>42705</v>
       </c>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="23"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="23"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="22">
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="30">
         <v>42712</v>
       </c>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="23"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="23"/>
-      <c r="AY19" s="23"/>
-      <c r="AZ19" s="23"/>
-      <c r="BA19" s="23"/>
-      <c r="BB19" s="23"/>
-      <c r="BC19" s="23"/>
-      <c r="BD19" s="23"/>
-      <c r="BE19" s="24"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="32"/>
       <c r="BF19" s="5"/>
     </row>
     <row r="20" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="19" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="19" t="s">
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="19" t="s">
+      <c r="I20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="19" t="s">
+      <c r="L20" s="27"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="19" t="s">
+      <c r="O20" s="28"/>
+      <c r="P20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="19" t="s">
+      <c r="Q20" s="27"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="T20" s="20"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="19" t="s">
+      <c r="T20" s="27"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="W20" s="20"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="19" t="s">
+      <c r="W20" s="27"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="19" t="s">
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="19" t="s">
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="19" t="s">
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="19" t="s">
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="19" t="s">
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="19" t="s">
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AQ20" s="21"/>
-      <c r="AR20" s="19" t="s">
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="21"/>
-      <c r="AU20" s="19" t="s">
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="19" t="s">
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="28"/>
+      <c r="AX20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="21"/>
-      <c r="BA20" s="19" t="s">
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="28"/>
+      <c r="BA20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="19" t="s">
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="BE20" s="21"/>
+      <c r="BE20" s="28"/>
       <c r="BF20" s="5"/>
     </row>
     <row r="21" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="30"/>
-      <c r="AU21" s="30"/>
-      <c r="AV21" s="30"/>
-      <c r="AW21" s="30"/>
-      <c r="AX21" s="30"/>
-      <c r="AY21" s="30"/>
-      <c r="AZ21" s="30"/>
-      <c r="BA21" s="30"/>
-      <c r="BB21" s="30"/>
-      <c r="BC21" s="30"/>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="30"/>
+      <c r="A21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="21"/>
+      <c r="AT21" s="21"/>
+      <c r="AU21" s="21"/>
+      <c r="AV21" s="21"/>
+      <c r="AW21" s="21"/>
+      <c r="AX21" s="21"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="21"/>
+      <c r="BA21" s="21"/>
+      <c r="BB21" s="21"/>
+      <c r="BC21" s="21"/>
+      <c r="BD21" s="21"/>
+      <c r="BE21" s="21"/>
       <c r="BF21" s="5"/>
     </row>
     <row r="22" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -1525,7 +1529,7 @@
     </row>
     <row r="23" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
@@ -1538,14 +1542,14 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="14"/>
       <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
+      <c r="AO23" s="33"/>
+      <c r="AP23" s="33"/>
+      <c r="AQ23" s="33"/>
       <c r="BF23" s="2"/>
     </row>
     <row r="24" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1565,7 +1569,7 @@
     </row>
     <row r="25" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -1585,7 +1589,7 @@
     </row>
     <row r="26" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
@@ -1602,241 +1606,346 @@
     </row>
     <row r="27" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO27" s="15"/>
       <c r="AP27" s="15"/>
       <c r="AQ27" s="15"/>
       <c r="BF27" s="2"/>
     </row>
-    <row r="28" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="33"/>
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BF28" s="5"/>
+    </row>
+    <row r="29" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO29" s="33"/>
+      <c r="AP29" s="33"/>
+      <c r="AQ29" s="33"/>
+      <c r="AR29" s="33"/>
+      <c r="AS29" s="33"/>
+      <c r="AT29" s="33"/>
+      <c r="AU29" s="33"/>
+      <c r="AV29" s="33"/>
+      <c r="AW29" s="33"/>
+      <c r="AX29" s="33"/>
+      <c r="AY29" s="33"/>
+      <c r="AZ29" s="33"/>
+      <c r="BA29" s="33"/>
+      <c r="BB29" s="33"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="5"/>
+    </row>
+    <row r="30" spans="1:58" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B30" s="30">
         <v>42719</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="22">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="30">
         <v>42726</v>
       </c>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="29"/>
-      <c r="AT28" s="29"/>
-      <c r="AU28" s="29"/>
-      <c r="AV28" s="29"/>
-      <c r="AW28" s="29"/>
-      <c r="AX28" s="29"/>
-      <c r="AY28" s="29"/>
-      <c r="AZ28" s="29"/>
-      <c r="BA28" s="29"/>
-      <c r="BB28" s="29"/>
-      <c r="BC28" s="29"/>
-      <c r="BD28" s="29"/>
-      <c r="BE28" s="29"/>
-      <c r="BF28" s="5"/>
-    </row>
-    <row r="29" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="20"/>
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="20"/>
+      <c r="AW30" s="20"/>
+      <c r="AX30" s="20"/>
+      <c r="AY30" s="20"/>
+      <c r="AZ30" s="20"/>
+      <c r="BA30" s="20"/>
+      <c r="BB30" s="20"/>
+      <c r="BC30" s="20"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="20"/>
+      <c r="BF30" s="5"/>
+    </row>
+    <row r="31" spans="1:58" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B31" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="19" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="19" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="19" t="s">
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="19" t="s">
+      <c r="L31" s="27"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="19" t="s">
+      <c r="O31" s="28"/>
+      <c r="P31" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="19" t="s">
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="T29" s="20"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="19" t="s">
+      <c r="T31" s="27"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="W29" s="20"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="19" t="s">
+      <c r="W31" s="27"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="19" t="s">
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="29"/>
-      <c r="AU29" s="29"/>
-      <c r="AV29" s="29"/>
-      <c r="AW29" s="29"/>
-      <c r="AX29" s="29"/>
-      <c r="AY29" s="29"/>
-      <c r="AZ29" s="29"/>
-      <c r="BA29" s="29"/>
-      <c r="BB29" s="29"/>
-      <c r="BC29" s="29"/>
-      <c r="BD29" s="29"/>
-      <c r="BE29" s="29"/>
-      <c r="BF29" s="5"/>
-    </row>
-    <row r="30" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="20"/>
+      <c r="AS31" s="20"/>
+      <c r="AT31" s="20"/>
+      <c r="AU31" s="20"/>
+      <c r="AV31" s="20"/>
+      <c r="AW31" s="20"/>
+      <c r="AX31" s="20"/>
+      <c r="AY31" s="20"/>
+      <c r="AZ31" s="20"/>
+      <c r="BA31" s="20"/>
+      <c r="BB31" s="20"/>
+      <c r="BC31" s="20"/>
+      <c r="BD31" s="20"/>
+      <c r="BE31" s="20"/>
+      <c r="BF31" s="5"/>
+    </row>
+    <row r="32" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="BF32" s="2"/>
+    </row>
+    <row r="33" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="BF33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BF30" s="2"/>
-    </row>
-    <row r="31" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="BF34" s="2"/>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="BF35" s="5"/>
+    </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BF31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF32" s="2"/>
-    </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="BF33" s="5"/>
-    </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF34" s="5"/>
-    </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="BF35" s="5"/>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
       <c r="BF36" s="5"/>
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="BF37" s="5"/>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="BF38" s="5"/>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="BF37" s="5"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="BF39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="P1:AC1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AR1:BE1"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="AD1:AQ1"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AG20:AI20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AR20:AT20"/>
+    <mergeCell ref="AU20:AW20"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="BA20:BC20"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="P30:AC30"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="AX8:AZ8"/>
+    <mergeCell ref="BA8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="P19:AC19"/>
+    <mergeCell ref="AD19:AQ19"/>
+    <mergeCell ref="AR19:BE19"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AM8:AO8"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AR8:AT8"/>
+    <mergeCell ref="AU8:AW8"/>
     <mergeCell ref="B7:O7"/>
     <mergeCell ref="P7:AC7"/>
     <mergeCell ref="AD7:AQ7"/>
@@ -1853,50 +1962,30 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AD8:AF8"/>
     <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AX8:AZ8"/>
-    <mergeCell ref="BA8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="P19:AC19"/>
-    <mergeCell ref="AD19:AQ19"/>
-    <mergeCell ref="AR19:BE19"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AR8:AT8"/>
-    <mergeCell ref="AU8:AW8"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="P28:AC28"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AR20:AT20"/>
-    <mergeCell ref="AU20:AW20"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="BA20:BC20"/>
-    <mergeCell ref="BD20:BE20"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AM20:AO20"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AG20:AI20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="AD1:AQ1"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR1:BE1"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="P1:AC1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
